--- a/game/resources/files/objetos.xlsx
+++ b/game/resources/files/objetos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Documentos\REPOS\Personal-Proy\game\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Documentos\REPOS\Personal-Proy\game\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60BE14E5-7B97-4915-B1C0-3FAA324CFA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA7155-D171-4D65-A8C5-88FBCAC63BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E25287D-6549-4BD2-88FF-FC23737A5FB1}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Coche usado</t>
   </si>
   <si>
-    <t>Lancha pequeña</t>
-  </si>
-  <si>
     <t>Tracto-camión</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Restaurante pequeño</t>
+  </si>
+  <si>
+    <t>Lancha</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,9 +560,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>18000</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>20000</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>25000</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>28000</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>30000</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>32000</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>35000</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>37000</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>40000</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>42000</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>45000</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>48000</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>50000</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>52000</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>55000</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>58000</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>60000</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>62000</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>65000</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>68000</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>70000</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>72000</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>75000</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>78000</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>80000</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>85000</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>90000</v>
